--- a/orders_data.xlsx
+++ b/orders_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,7 +445,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Сумма всех заказов: 16200.0</t>
+          <t>Сумма всех заказов: 6250.0</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -462,103 +462,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>89779097521</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>89779097521</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>89779097521</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>89779097521</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>89779097521</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>89991234567</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>8500</v>
+        <v>6250</v>
       </c>
     </row>
   </sheetData>

--- a/orders_data.xlsx
+++ b/orders_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,48 +421,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Номер заказа</t>
+          <t>ID пользователя</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Идентифиактор пользователя</t>
+          <t>Номер телефона</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Номер телефона</t>
+          <t>Количество заказов</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Сумма всех заказов: 6250.0</t>
+          <t>Сумма всех заказов</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>89779097521</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31492500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>89192172081</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>89779097521</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>6250</v>
+      <c r="D3" t="n">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/orders_data.xlsx
+++ b/orders_data.xlsx
@@ -459,26 +459,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>31492500</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>89192172081</t>
+          <t>89192179890</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1050</v>
+        <v>2250</v>
       </c>
     </row>
   </sheetData>

--- a/orders_data.xlsx
+++ b/orders_data.xlsx
@@ -462,23 +462,23 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>8950</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>89192179890</t>
+          <t>89192170549</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2250</v>
+        <v>18100</v>
       </c>
     </row>
   </sheetData>
